--- a/xls/AVČR-Ústav pro soudobé dějiny AV ČR, v. v. i._All.xlsx
+++ b/xls/AVČR-Ústav pro soudobé dějiny AV ČR, v. v. i._All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="111">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jsc</t>
   </si>
   <si>
@@ -166,9 +178,6 @@
     <t>150 Jahre Mendels Vortrag Versuche über Pflanzenhybriden</t>
   </si>
   <si>
-    <t>From Legacy and Tradition to Lieux de Mémoire</t>
-  </si>
-  <si>
     <t>Thw Moscow S. I. Vavilov Institute for the history of science and technology celebrates its eightieth anniversary</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
     <t>0947-0867</t>
   </si>
   <si>
-    <t>0001-6829</t>
-  </si>
-  <si>
     <t>Filosofický časopis</t>
   </si>
   <si>
@@ -265,9 +271,6 @@
     <t>BIOspektrum</t>
   </si>
   <si>
-    <t>Acta Poloniae Historica</t>
-  </si>
-  <si>
     <t>1 - SPOLEČENSKÉ, HUMANITNÍ a UMĚLECKÉ VĚDY -  SHVa</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
     <t>e1291de7e670e45e564dc3c77d8dd80c068a994a</t>
   </si>
   <si>
-    <t>e6d066c7b180e471da8e1d0021adfd6a7a4e335e</t>
-  </si>
-  <si>
     <t>f2f906f8f5411631e33f8f2dff58c69c15a91b1a</t>
   </si>
   <si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>AVČR-Ústav pro soudobé dějiny AV ČR, v. v. i.</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +715,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,13 +773,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -782,22 +800,22 @@
         <v>101.743</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
         <v>105</v>
@@ -817,13 +835,25 @@
       <c r="S2" t="s">
         <v>108</v>
       </c>
+      <c r="T2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -832,22 +862,22 @@
         <v>13.858</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
         <v>105</v>
@@ -867,13 +897,25 @@
       <c r="S3" t="s">
         <v>108</v>
       </c>
+      <c r="T3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -882,22 +924,22 @@
         <v>13.804</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
         <v>105</v>
@@ -917,13 +959,25 @@
       <c r="S4" t="s">
         <v>108</v>
       </c>
+      <c r="T4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2012</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0.66666669</v>
@@ -932,22 +986,22 @@
         <v>9.548000300000002</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>105</v>
@@ -967,13 +1021,25 @@
       <c r="S5" t="s">
         <v>108</v>
       </c>
+      <c r="T5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -982,22 +1048,22 @@
         <v>66.85165400000001</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
         <v>105</v>
@@ -1017,13 +1083,25 @@
       <c r="S6" t="s">
         <v>108</v>
       </c>
+      <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2011</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1032,22 +1110,22 @@
         <v>18.554001</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
         <v>105</v>
@@ -1067,13 +1145,25 @@
       <c r="S7" t="s">
         <v>108</v>
       </c>
+      <c r="T7" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1082,22 +1172,22 @@
         <v>10.797</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
         <v>105</v>
@@ -1117,13 +1207,25 @@
       <c r="S8" t="s">
         <v>108</v>
       </c>
+      <c r="T8" t="s">
+        <v>109</v>
+      </c>
+      <c r="U8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2012</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -1132,22 +1234,22 @@
         <v>1.342</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
         <v>105</v>
@@ -1167,13 +1269,25 @@
       <c r="S9" t="s">
         <v>108</v>
       </c>
+      <c r="T9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2011</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1182,22 +1296,22 @@
         <v>74.90799699999999</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
@@ -1217,13 +1331,25 @@
       <c r="S10" t="s">
         <v>108</v>
       </c>
+      <c r="T10" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2012</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1232,22 +1358,22 @@
         <v>16.726999</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -1267,13 +1393,25 @@
       <c r="S11" t="s">
         <v>108</v>
       </c>
+      <c r="T11" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2012</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -1282,22 +1420,22 @@
         <v>9.993</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
         <v>105</v>
@@ -1317,13 +1455,25 @@
       <c r="S12" t="s">
         <v>108</v>
       </c>
+      <c r="T12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>0.66666669</v>
@@ -1332,22 +1482,22 @@
         <v>7.3447742</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
         <v>105</v>
@@ -1367,13 +1517,25 @@
       <c r="S13" t="s">
         <v>108</v>
       </c>
+      <c r="T13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1382,22 +1544,22 @@
         <v>23.711</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
         <v>105</v>
@@ -1417,13 +1579,25 @@
       <c r="S14" t="s">
         <v>108</v>
       </c>
+      <c r="T14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1432,22 +1606,22 @@
         <v>16.726999</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s">
         <v>105</v>
@@ -1467,13 +1641,25 @@
       <c r="S15" t="s">
         <v>108</v>
       </c>
+      <c r="T15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U15" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1482,22 +1668,22 @@
         <v>97.988998</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
         <v>105</v>
@@ -1517,13 +1703,25 @@
       <c r="S16" t="s">
         <v>108</v>
       </c>
+      <c r="T16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>2012</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1532,22 +1730,22 @@
         <v>16.726999</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s">
         <v>105</v>
@@ -1567,13 +1765,25 @@
       <c r="S17" t="s">
         <v>108</v>
       </c>
+      <c r="T17" t="s">
+        <v>109</v>
+      </c>
+      <c r="U17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>2011</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -1582,22 +1792,22 @@
         <v>25.405001</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s">
         <v>105</v>
@@ -1617,13 +1827,25 @@
       <c r="S18" t="s">
         <v>108</v>
       </c>
+      <c r="T18" t="s">
+        <v>109</v>
+      </c>
+      <c r="U18" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>2015</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0.66666669</v>
@@ -1632,22 +1854,22 @@
         <v>6.3164063</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s">
         <v>105</v>
@@ -1667,37 +1889,49 @@
       <c r="S19" t="s">
         <v>108</v>
       </c>
+      <c r="T19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>2012</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>11.226</v>
+        <v>14.322</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s">
         <v>105</v>
@@ -1717,55 +1951,17 @@
       <c r="S20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21">
-        <v>2012</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>14.322</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" t="s">
-        <v>105</v>
-      </c>
-      <c r="O21" t="s">
-        <v>106</v>
-      </c>
-      <c r="P21">
-        <v>68378114</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>107</v>
-      </c>
-      <c r="R21" t="s">
-        <v>108</v>
-      </c>
-      <c r="S21" t="s">
-        <v>108</v>
+      <c r="T20" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/AVČR-Ústav pro soudobé dějiny AV ČR, v. v. i._All.xlsx
+++ b/xls/AVČR-Ústav pro soudobé dějiny AV ČR, v. v. i._All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jsc</t>
